--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_6.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_3</t>
+          <t>model_8_6_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3193626221888012</v>
+        <v>-0.09273789730344206</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2186862269676364</v>
+        <v>-1.012154730746021</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.364514044309943</v>
+        <v>-4.152979013636195</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8171731226808683</v>
+        <v>-2.10887844408628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7532650828361511</v>
+        <v>1.209338903427124</v>
       </c>
       <c r="G2" t="n">
-        <v>1.245021939277649</v>
+        <v>2.934303045272827</v>
       </c>
       <c r="H2" t="n">
-        <v>3.683498859405518</v>
+        <v>5.164154052734375</v>
       </c>
       <c r="I2" t="n">
-        <v>2.392534255981445</v>
+        <v>3.983642101287842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_4</t>
+          <t>model_8_6_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3220406877054235</v>
+        <v>-0.09030335439939163</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2107973356018018</v>
+        <v>-1.015784341513713</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.35710774461653</v>
+        <v>-4.128178747260187</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8098138488014415</v>
+        <v>-2.101941350584962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7503012418746948</v>
+        <v>1.206644654273987</v>
       </c>
       <c r="G3" t="n">
-        <v>1.236962556838989</v>
+        <v>2.939595937728882</v>
       </c>
       <c r="H3" t="n">
-        <v>3.671961307525635</v>
+        <v>5.139300346374512</v>
       </c>
       <c r="I3" t="n">
-        <v>2.382844924926758</v>
+        <v>3.974752426147461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_5</t>
+          <t>model_8_6_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.323018570862263</v>
+        <v>-0.08470543407412667</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2128968786693426</v>
+        <v>-1.018818555343681</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.350769305978619</v>
+        <v>-4.079915590246125</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8071566412432942</v>
+        <v>-2.08600168292041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7492189407348633</v>
+        <v>1.200449228286743</v>
       </c>
       <c r="G4" t="n">
-        <v>1.239107489585876</v>
+        <v>2.944020509719849</v>
       </c>
       <c r="H4" t="n">
-        <v>3.662087202072144</v>
+        <v>5.090932369232178</v>
       </c>
       <c r="I4" t="n">
-        <v>2.379346370697021</v>
+        <v>3.954327821731567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_6</t>
+          <t>model_8_6_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3278444801194688</v>
+        <v>-0.07769226302917875</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2063061981104048</v>
+        <v>-1.020563179263584</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.331766123255555</v>
+        <v>-4.022793170544749</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7938363946601588</v>
+        <v>-2.066032138658124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.743878185749054</v>
+        <v>1.192687749862671</v>
       </c>
       <c r="G5" t="n">
-        <v>1.232374310493469</v>
+        <v>2.946564912796021</v>
       </c>
       <c r="H5" t="n">
-        <v>3.632483720779419</v>
+        <v>5.03368616104126</v>
       </c>
       <c r="I5" t="n">
-        <v>2.36180853843689</v>
+        <v>3.928739309310913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_7</t>
+          <t>model_8_6_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3538756903904871</v>
+        <v>-0.06387007243716614</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1697729902149485</v>
+        <v>-1.015575081433473</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.229552037549357</v>
+        <v>-3.924073054507711</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7219387263597092</v>
+        <v>-2.026690612171861</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7150692343711853</v>
+        <v>1.177390694618225</v>
       </c>
       <c r="G6" t="n">
-        <v>1.195051670074463</v>
+        <v>2.939290761947632</v>
       </c>
       <c r="H6" t="n">
-        <v>3.473251819610596</v>
+        <v>4.934751510620117</v>
       </c>
       <c r="I6" t="n">
-        <v>2.267146110534668</v>
+        <v>3.878328561782837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_8</t>
+          <t>model_8_6_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3678005016062984</v>
+        <v>-0.05315664012430332</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1513043054159995</v>
+        <v>-1.009541546640976</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.174035396285984</v>
+        <v>-3.85106836344803</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6834429866911482</v>
+        <v>-1.996187083326114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6996585130691528</v>
+        <v>1.165534138679504</v>
       </c>
       <c r="G7" t="n">
-        <v>1.176183938980103</v>
+        <v>2.930492162704468</v>
       </c>
       <c r="H7" t="n">
-        <v>3.386766910552979</v>
+        <v>4.861588478088379</v>
       </c>
       <c r="I7" t="n">
-        <v>2.216461896896362</v>
+        <v>3.839241981506348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_9</t>
+          <t>model_8_6_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3759271500423418</v>
+        <v>-0.04435932903006545</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1392480398555582</v>
+        <v>-1.014593598327592</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.142611221386217</v>
+        <v>-3.774704730656787</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6609911914833824</v>
+        <v>-1.971129954731939</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6906647682189941</v>
+        <v>1.155798077583313</v>
       </c>
       <c r="G8" t="n">
-        <v>1.163867115974426</v>
+        <v>2.937859535217285</v>
       </c>
       <c r="H8" t="n">
-        <v>3.33781361579895</v>
+        <v>4.785059452056885</v>
       </c>
       <c r="I8" t="n">
-        <v>2.186901330947876</v>
+        <v>3.807134389877319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_10</t>
+          <t>model_8_6_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3910903121517351</v>
+        <v>-0.0358482577767425</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1181654096022573</v>
+        <v>-1.011144779179304</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.08280051488796</v>
+        <v>-3.714480166878709</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6190264801242185</v>
+        <v>-1.94688395044356</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6738835573196411</v>
+        <v>1.146378755569458</v>
       </c>
       <c r="G9" t="n">
-        <v>1.142328858375549</v>
+        <v>2.932830095291138</v>
       </c>
       <c r="H9" t="n">
-        <v>3.244638681411743</v>
+        <v>4.724704265594482</v>
       </c>
       <c r="I9" t="n">
-        <v>2.131649494171143</v>
+        <v>3.776065587997437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_14</t>
+          <t>model_8_6_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4012149864537889</v>
+        <v>-0.01090532409447187</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1139082203974979</v>
+        <v>-0.9942548280355656</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.035818554403702</v>
+        <v>-3.54922770778419</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.591121209895908</v>
+        <v>-1.875887608329849</v>
       </c>
       <c r="F10" t="n">
-        <v>0.662678599357605</v>
+        <v>1.11877429485321</v>
       </c>
       <c r="G10" t="n">
-        <v>1.137979626655579</v>
+        <v>2.908199787139893</v>
       </c>
       <c r="H10" t="n">
-        <v>3.171449184417725</v>
+        <v>4.559093475341797</v>
       </c>
       <c r="I10" t="n">
-        <v>2.094908714294434</v>
+        <v>3.685092926025391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_16</t>
+          <t>model_8_6_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4026150557454961</v>
+        <v>0.000145806180597341</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1174536831344053</v>
+        <v>-0.9972879768962353</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.026341256937942</v>
+        <v>-3.458705966164477</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5872960388204986</v>
+        <v>-1.844398629655291</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6611291170120239</v>
+        <v>1.106543898582458</v>
       </c>
       <c r="G11" t="n">
-        <v>1.141601800918579</v>
+        <v>2.912622928619385</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15668511390686</v>
+        <v>4.468375205993652</v>
       </c>
       <c r="I11" t="n">
-        <v>2.089872360229492</v>
+        <v>3.6447434425354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_15</t>
+          <t>model_8_6_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4028018234050678</v>
+        <v>0.009097935982429139</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1116806550944165</v>
+        <v>-2.321536677893954</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.029651519283909</v>
+        <v>-1.159216566688853</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5867612275392486</v>
+        <v>-1.795939433482639</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6609224677085876</v>
+        <v>1.096636652946472</v>
       </c>
       <c r="G12" t="n">
-        <v>1.135703921318054</v>
+        <v>4.843760013580322</v>
       </c>
       <c r="H12" t="n">
-        <v>3.161841869354248</v>
+        <v>2.163899183273315</v>
       </c>
       <c r="I12" t="n">
-        <v>2.089168310165405</v>
+        <v>3.582648992538452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_13</t>
+          <t>model_8_6_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4036607949322683</v>
+        <v>0.01528585696714746</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1102024938192472</v>
+        <v>-1.000824770065175</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.026352401554465</v>
+        <v>-3.33572192794866</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5843297639111598</v>
+        <v>-1.801266797553361</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6599717736244202</v>
+        <v>1.089788317680359</v>
       </c>
       <c r="G13" t="n">
-        <v>1.134193897247314</v>
+        <v>2.917780637741089</v>
       </c>
       <c r="H13" t="n">
-        <v>3.156702518463135</v>
+        <v>4.3451247215271</v>
       </c>
       <c r="I13" t="n">
-        <v>2.085967063903809</v>
+        <v>3.589475631713867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_12</t>
+          <t>model_8_6_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4051995113881284</v>
+        <v>0.03246333944382696</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1078620057371418</v>
+        <v>-1.003513234407131</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.020419373914924</v>
+        <v>-3.198345661526156</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5800629835924331</v>
+        <v>-1.752322869228246</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6582688689231873</v>
+        <v>1.070778012275696</v>
       </c>
       <c r="G14" t="n">
-        <v>1.131802797317505</v>
+        <v>2.921701192855835</v>
       </c>
       <c r="H14" t="n">
-        <v>3.147459745407104</v>
+        <v>4.207450866699219</v>
       </c>
       <c r="I14" t="n">
-        <v>2.080349206924438</v>
+        <v>3.52675986289978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_11</t>
+          <t>model_8_6_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4059757461394986</v>
+        <v>0.0811863129757705</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1072723560548929</v>
+        <v>-0.9937622171911809</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.016988417176377</v>
+        <v>-2.837418631150658</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5779102258436153</v>
+        <v>-1.613611781538211</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6574097275733948</v>
+        <v>1.016856074333191</v>
       </c>
       <c r="G15" t="n">
-        <v>1.131200313568115</v>
+        <v>2.90748119354248</v>
       </c>
       <c r="H15" t="n">
-        <v>3.142115116119385</v>
+        <v>3.845740795135498</v>
       </c>
       <c r="I15" t="n">
-        <v>2.077514886856079</v>
+        <v>3.349018812179565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_17</t>
+          <t>model_8_6_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4098408100513031</v>
+        <v>0.1046347754240831</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1141784999043929</v>
+        <v>-0.9948778727992018</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9928983832872684</v>
+        <v>-2.654031571793501</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5673306006838563</v>
+        <v>-1.54678700014497</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6531323194503784</v>
+        <v>0.9909054636955261</v>
       </c>
       <c r="G16" t="n">
-        <v>1.138255834579468</v>
+        <v>2.909108400344849</v>
       </c>
       <c r="H16" t="n">
-        <v>3.104587078094482</v>
+        <v>3.661956071853638</v>
       </c>
       <c r="I16" t="n">
-        <v>2.06358528137207</v>
+        <v>3.263391494750977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_18</t>
+          <t>model_8_6_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4113676003197179</v>
+        <v>0.124155038623934</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.113691305042708</v>
+        <v>-0.9948211829593883</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9856744182779924</v>
+        <v>-2.50285498282916</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5631073623115357</v>
+        <v>-1.49111220398112</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6514425873756409</v>
+        <v>0.969302237033844</v>
       </c>
       <c r="G17" t="n">
-        <v>1.137758016586304</v>
+        <v>2.9090256690979</v>
       </c>
       <c r="H17" t="n">
-        <v>3.09333348274231</v>
+        <v>3.510451555252075</v>
       </c>
       <c r="I17" t="n">
-        <v>2.058025121688843</v>
+        <v>3.19205117225647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_19</t>
+          <t>model_8_6_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4124768616990717</v>
+        <v>0.1438363840560252</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.111893748421275</v>
+        <v>-0.9949434837435545</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9814931252510954</v>
+        <v>-2.350051151162876</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5600500533348665</v>
+        <v>-1.434948407471282</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6502150297164917</v>
+        <v>0.9475207924842834</v>
       </c>
       <c r="G18" t="n">
-        <v>1.135921716690063</v>
+        <v>2.909203767776489</v>
       </c>
       <c r="H18" t="n">
-        <v>3.086819887161255</v>
+        <v>3.357316255569458</v>
       </c>
       <c r="I18" t="n">
-        <v>2.053999662399292</v>
+        <v>3.120084285736084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_2</t>
+          <t>model_8_6_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4130244658872237</v>
+        <v>0.1665770890757999</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2552216930406286</v>
+        <v>-0.9923662916159066</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6888987984716435</v>
+        <v>-2.177904756252021</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4559991915956751</v>
+        <v>-1.370034590913253</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6496090292930603</v>
+        <v>0.9223536252975464</v>
       </c>
       <c r="G19" t="n">
-        <v>1.282346963882446</v>
+        <v>2.90544581413269</v>
       </c>
       <c r="H19" t="n">
-        <v>2.631008863449097</v>
+        <v>3.184796810150146</v>
       </c>
       <c r="I19" t="n">
-        <v>1.917003870010376</v>
+        <v>3.036905288696289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_20</t>
+          <t>model_8_6_0</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4200421051518557</v>
+        <v>0.1853199283319504</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1023196179843284</v>
+        <v>-2.015074083680278</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.9510038198789621</v>
+        <v>-0.1478906653596841</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5391329939292633</v>
+        <v>-1.239075692634021</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6418424844741821</v>
+        <v>0.901610791683197</v>
       </c>
       <c r="G20" t="n">
-        <v>1.126140594482422</v>
+        <v>4.396848678588867</v>
       </c>
       <c r="H20" t="n">
-        <v>3.0393226146698</v>
+        <v>1.15038013458252</v>
       </c>
       <c r="I20" t="n">
-        <v>2.026459932327271</v>
+        <v>2.869097232818604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_21</t>
+          <t>model_8_6_7</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4237156078236942</v>
+        <v>0.1887480847695719</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09691928679398498</v>
+        <v>-0.9842457378743343</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.9367438756187585</v>
+        <v>-2.019082006905151</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5289763796448292</v>
+        <v>-1.306686484853</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6377769708633423</v>
+        <v>0.8978167772293091</v>
       </c>
       <c r="G21" t="n">
-        <v>1.120623588562012</v>
+        <v>2.893603324890137</v>
       </c>
       <c r="H21" t="n">
-        <v>3.017108201980591</v>
+        <v>3.02562952041626</v>
       </c>
       <c r="I21" t="n">
-        <v>2.013087272644043</v>
+        <v>2.955732345581055</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_23</t>
+          <t>model_8_6_6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4244148771504979</v>
+        <v>0.2077653619928833</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.09945248786928973</v>
+        <v>-0.9696787661746324</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.9314507825507177</v>
+        <v>-1.895094509875312</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5270733345269538</v>
+        <v>-1.252275903321601</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6370031237602234</v>
+        <v>0.8767703175544739</v>
       </c>
       <c r="G22" t="n">
-        <v>1.12321150302887</v>
+        <v>2.872360706329346</v>
       </c>
       <c r="H22" t="n">
-        <v>3.008862495422363</v>
+        <v>2.901372909545898</v>
       </c>
       <c r="I22" t="n">
-        <v>2.010581731796265</v>
+        <v>2.886011838912964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_22</t>
+          <t>model_8_6_5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4260677045735854</v>
+        <v>0.2214652175370833</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.09637481798327596</v>
+        <v>-0.9649611959164845</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9255081443560202</v>
+        <v>-1.795802959574566</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.522495510392772</v>
+        <v>-1.212891035190357</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6351739168167114</v>
+        <v>0.861608624458313</v>
       </c>
       <c r="G23" t="n">
-        <v>1.120067238807678</v>
+        <v>2.86548113822937</v>
       </c>
       <c r="H23" t="n">
-        <v>2.99960470199585</v>
+        <v>2.801866292953491</v>
       </c>
       <c r="I23" t="n">
-        <v>2.004554510116577</v>
+        <v>2.835545063018799</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_24</t>
+          <t>model_8_6_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4311703395589872</v>
+        <v>0.2396098266747348</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.09611734581008569</v>
+        <v>-0.9524351398878377</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.900372054591807</v>
+        <v>-1.674569096874512</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5083990314795761</v>
+        <v>-1.160723943168089</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6295267939567566</v>
+        <v>0.8415278792381287</v>
       </c>
       <c r="G24" t="n">
-        <v>1.119804263114929</v>
+        <v>2.847214698791504</v>
       </c>
       <c r="H24" t="n">
-        <v>2.960447311401367</v>
+        <v>2.68036937713623</v>
       </c>
       <c r="I24" t="n">
-        <v>1.985994935035706</v>
+        <v>2.768699407577515</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_1</t>
+          <t>model_8_6_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.536369206464602</v>
+        <v>0.2557104871934369</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1194321200410653</v>
+        <v>-0.9380508757161479</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1329815217218249</v>
+        <v>-1.571980161711036</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.09068592652513696</v>
+        <v>-1.11430152862168</v>
       </c>
       <c r="F25" t="n">
-        <v>0.513102650642395</v>
+        <v>0.8237091898918152</v>
       </c>
       <c r="G25" t="n">
-        <v>1.143622875213623</v>
+        <v>2.826237916946411</v>
       </c>
       <c r="H25" t="n">
-        <v>1.764986991882324</v>
+        <v>2.577558040618896</v>
       </c>
       <c r="I25" t="n">
-        <v>1.436023592948914</v>
+        <v>2.709214925765991</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_6_0</t>
+          <t>model_8_6_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8015645647916427</v>
+        <v>0.3739783326781468</v>
       </c>
       <c r="C26" t="n">
-        <v>0.787147417044457</v>
+        <v>-0.7190988171251351</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5944110846249793</v>
+        <v>-1.010588277514764</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6867327061033173</v>
+        <v>-0.7757617423268606</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2196095436811447</v>
+        <v>0.6928215026855469</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2174523174762726</v>
+        <v>2.506942749023438</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6318365931510925</v>
+        <v>2.014948844909668</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4124553203582764</v>
+        <v>2.275418043136597</v>
       </c>
     </row>
   </sheetData>
